--- a/2 - Covid19/Dicionario_dados.xlsx
+++ b/2 - Covid19/Dicionario_dados.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,23 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F62912-F97A-4D17-909D-4CB1F8D4FACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="owid-covid-codebook" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -691,7 +702,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1537,11 +1548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A2:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1608,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A63" si="0">"* "&amp;B3&amp;" - "&amp;C3&amp;";"</f>
+        <f t="shared" ref="A3:A62" si="0">"* "&amp;B3&amp;" - "&amp;C3&amp;";"</f>
         <v>* continent - Continente;</v>
       </c>
       <c r="B3" s="1" t="s">
